--- a/keywordautotest/res/testcase/Goods.xlsx
+++ b/keywordautotest/res/testcase/Goods.xlsx
@@ -4,18 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="3" r:id="rId1"/>
     <sheet name="G001" sheetId="2" r:id="rId2"/>
     <sheet name="G002" sheetId="4" r:id="rId3"/>
     <sheet name="G003" sheetId="5" r:id="rId4"/>
+    <sheet name="G004" sheetId="6" r:id="rId5"/>
+    <sheet name="G005" sheetId="7" r:id="rId6"/>
+    <sheet name="G006" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'G001'!$A$1:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'G002'!$A$1:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'G003'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'G004'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'G005'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'G006'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -60,15 +66,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>(NA)</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Class</t>
@@ -597,9 +597,6 @@
     <t>MouseOver</t>
   </si>
   <si>
-    <t>Pause</t>
-  </si>
-  <si>
     <t>Wait for the specified amount of time (in milliseconds).</t>
   </si>
   <si>
@@ -715,14 +712,6 @@
   </si>
   <si>
     <t>Take screenshot of current screen and save to path defined in Setting "SnapshotFolder" with file name in "Data" column.</t>
-  </si>
-  <si>
-    <t>Clear</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssertTextEqual</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ObjProperty</t>
@@ -770,13 +759,104 @@
   </si>
   <si>
     <t>打开URL</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开百度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入腾讯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.so.com/index.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-button</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤描述</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行步骤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待元素</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +940,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -915,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -965,6 +1053,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1268,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1288,188 +1388,188 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="321.75" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>2</v>
+      <c r="A14" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>37</v>
+      <c r="A15" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
@@ -1477,7 +1577,7 @@
     </row>
     <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
@@ -1485,7 +1585,7 @@
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
@@ -1493,7 +1593,7 @@
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
@@ -1501,7 +1601,7 @@
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1509,21 +1609,24 @@
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
-        <v>56</v>
+      <c r="A22" s="21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="A23" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
@@ -1559,22 +1662,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
@@ -1582,16 +1685,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1647,22 +1750,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
@@ -1670,16 +1773,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1820,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -1735,22 +1838,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
@@ -1758,16 +1861,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1796,4 +1899,323 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Values!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/keywordautotest/res/testcase/Goods.xlsx
+++ b/keywordautotest/res/testcase/Goods.xlsx
@@ -4,24 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="3" r:id="rId1"/>
-    <sheet name="G001" sheetId="2" r:id="rId2"/>
-    <sheet name="G002" sheetId="4" r:id="rId3"/>
-    <sheet name="G003" sheetId="5" r:id="rId4"/>
-    <sheet name="G004" sheetId="6" r:id="rId5"/>
-    <sheet name="G005" sheetId="7" r:id="rId6"/>
-    <sheet name="G006" sheetId="8" r:id="rId7"/>
+    <sheet name="001_SearchTest" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'G001'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'G002'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'G003'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'G004'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'G005'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'G006'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'001_SearchTest'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -66,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>(NA)</t>
   </si>
@@ -80,22 +70,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>ObjValue</t>
-  </si>
-  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Data</t>
   </si>
   <si>
     <t>ClassName</t>
@@ -712,26 +687,6 @@
   </si>
   <si>
     <t>Take screenshot of current screen and save to path defined in Setting "SnapshotFolder" with file name in "Data" column.</t>
-  </si>
-  <si>
-    <t>ObjProperty</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.163.com</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开网易首页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.qq.com</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1003,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1017,13 +972,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1041,9 +990,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1384,249 +1330,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="321.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="321.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
-        <v>78</v>
+      <c r="A22" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
-        <v>79</v>
+      <c r="A23" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+      <c r="A24" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
@@ -1642,555 +1588,115 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
+    <col min="1" max="1" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="C5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/keywordautotest/res/testcase/Goods.xlsx
+++ b/keywordautotest/res/testcase/Goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="15600" windowHeight="10170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Daisy Xiao</author>
+    <author>Windows 用户</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -28,13 +28,29 @@
         <r>
           <rPr>
             <b/>
-            <sz val="12"/>
+            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>执行动作</t>
+          <t xml:space="preserve">"动作"列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对动作的描述
+</t>
         </r>
       </text>
     </comment>
@@ -43,207 +59,353 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>腾讯</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输入腾讯</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://www.so.com/index.html</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>步骤描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>暂停</t>
   </si>
   <si>
     <t>暂停</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>清除</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等待元素</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输入</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输入</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>定位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>动作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>打开链接</t>
   </si>
   <si>
     <t>打开链接</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>打开360搜索</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等待1秒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点击搜索按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点击</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <t>2000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待搜索框显示出来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待元素</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>等待</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>iFrame</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>秒</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待搜索框显示出来</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GoodsPage.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>跳出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>iFrame</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待2秒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsPage.搜索框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsPage.搜索按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行任何操作，在“定位”和“测试数据”列不接受任何参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个网址，在“测试数据”列传入URL参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择下拉列表 - 名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择下拉列表 - 序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个下拉菜单的值，在“测试数据”列输入要选择的值作为参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个下拉菜单的值，在“测试数据”列输入要选择的值所在的位置（从0开始）作为参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索框</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GoodsPage.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>进入一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>iframe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索按钮</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择下拉列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>里面，在“定位”列输入，这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>iFrame</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>选择</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>的定位即可，无测试数据参数</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳出已经进入的</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>iFrame</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行任何操作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待元素</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>iframe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，不需要输入任何参数或者定位</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>向输入框输入内容，“定位”列输入输入框的定位，“测试数据”列输入要输入的内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页面暂停一会儿，具体暂停多久，请在“测试数据”中输入一个数字，1000代表1秒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除输入框上的内容，“定位”列输入要清除的输入框的定位，“测试数据”列为空，无参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能等待元素加载出来，进而进行查找点击等操作，“定位”列输入要等待的元素，”测试数据”列输入等待时间，请输入整数，例如 10 代表10秒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某个元素，比如按钮，输入框等，“定位”列输入要点击元素的定位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证文本和需求定义的文本是不是一致，“定位”列输入要检查文本的元素，“测试数据”输入期望的文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得网页标题</t>
+  </si>
+  <si>
+    <t>获得网页标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得网页的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并判断网页的标题和传入到“测试数据”列的值是不是一样</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查网页标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>360搜索 - 干净、安全、可信任的搜索引擎</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -257,19 +419,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -300,23 +449,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -331,7 +465,37 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -384,54 +548,57 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,75 +902,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" customWidth="1"/>
+    <col min="2" max="2" width="63.5" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>29</v>
+      <c r="B12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -815,133 +1033,147 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="5"/>
+    <col min="1" max="1" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="E8" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
@@ -954,7 +1186,7 @@
           <x14:formula1>
             <xm:f>Values!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D11:D1048576</xm:sqref>
+          <xm:sqref>D12:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/keywordautotest/res/testcase/Goods.xlsx
+++ b/keywordautotest/res/testcase/Goods.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>腾讯</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -353,10 +353,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>检查文本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>验证文本和需求定义的文本是不是一致，“定位”列输入要检查文本的元素，“测试数据”输入期望的文本</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -405,6 +401,48 @@
   </si>
   <si>
     <t>360搜索 - 干净、安全、可信任的搜索引擎</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>检查文本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+  </si>
+  <si>
+    <t>检查文本 - 元素</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查文本 - 属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索一下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsPage.搜索按钮</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -965,10 +1003,10 @@
     </row>
     <row r="7" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1013,10 +1051,15 @@
     </row>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+    </row>
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1033,11 +1076,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1134,40 +1177,57 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1186,7 +1246,7 @@
           <x14:formula1>
             <xm:f>Values!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D12:D1048576</xm:sqref>
+          <xm:sqref>D13:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
